--- a/data/trans_bre/POLIPATOLOGIA_2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_2-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>16.91725935413324</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.508584682809831</v>
+        <v>5.508584682809836</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4084423362531291</v>
@@ -649,7 +649,7 @@
         <v>0.6854942062767942</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2012627883811252</v>
+        <v>0.2012627883811254</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2224336776701503</v>
+        <v>0.8668749579260863</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.931526324790191</v>
+        <v>10.18793048681381</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.279615576691638</v>
+        <v>8.803011002268461</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.4891015621047675</v>
+        <v>-0.5745525248893085</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.01344796378289673</v>
+        <v>0.04226724360400889</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3533024415330343</v>
+        <v>0.3959654641623177</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3285896084039919</v>
+        <v>0.297092872950218</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.01438701121769336</v>
+        <v>-0.01741916041416409</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.72058713390295</v>
+        <v>15.04502914827125</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>26.26706674731316</v>
+        <v>26.04490764960985</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>24.16703427937842</v>
+        <v>24.11691935493179</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.47255929178799</v>
+        <v>11.78017426606234</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9695703048939327</v>
+        <v>1.001981066677592</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.295078573450676</v>
+        <v>1.365860449314437</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.186725705421813</v>
+        <v>1.179991381802031</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4950563886187238</v>
+        <v>0.4976481119433124</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.620242173007584</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5249581159201735</v>
+        <v>0.5249581159201732</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.91212258291326</v>
+        <v>17.17583092213638</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.125046384583703</v>
+        <v>7.656330985598685</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8.238572291931751</v>
+        <v>7.774224058744683</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.811803776945839</v>
+        <v>7.845947312651917</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7971134865022621</v>
+        <v>0.7971542818253557</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3323574164179781</v>
+        <v>0.3214036079538815</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3393438836089383</v>
+        <v>0.3175357713009332</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2610240592532561</v>
+        <v>0.2736568250117197</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>28.23792184607208</v>
+        <v>27.86999631584715</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>19.73320163315133</v>
+        <v>19.60902340477214</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>19.84085603730236</v>
+        <v>18.83279608013887</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20.45489380576459</v>
+        <v>19.26198677328104</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.834645106493368</v>
+        <v>1.813549063429587</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.115066918681425</v>
+        <v>1.093867820465492</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.013665565667682</v>
+        <v>0.9705862968254932</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9037523288428355</v>
+        <v>0.873468243606553</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>12.89664332244178</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11.41578820563987</v>
+        <v>11.41578820563988</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8618940544703796</v>
@@ -849,7 +849,7 @@
         <v>0.6756254646129737</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3181373177374601</v>
+        <v>0.3181373177374603</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.023664469852195</v>
+        <v>7.194792118931124</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.004768476534725</v>
+        <v>1.340563123083691</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.088174277334653</v>
+        <v>6.310716615359073</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.998914329712065</v>
+        <v>4.285017195787447</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4031551272025439</v>
+        <v>0.364289087929565</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03170018001198658</v>
+        <v>0.03950709494052671</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2617681235520335</v>
+        <v>0.284374374730678</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1219994274596403</v>
+        <v>0.1081114013842275</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>20.7563807383823</v>
+        <v>20.70954326430444</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.33510513297057</v>
+        <v>16.27182880687289</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19.36705710893264</v>
+        <v>19.61850290947356</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.66479721536513</v>
+        <v>17.7966108599283</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.509168509796169</v>
+        <v>1.527015631556936</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6223831542882337</v>
+        <v>0.6748814540954912</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.238404118654256</v>
+        <v>1.266991695738794</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5500967025576501</v>
+        <v>0.555343832083745</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.4918759206269267</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4252913180096502</v>
+        <v>0.4252913180096504</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.244137302561501</v>
+        <v>3.385615167325756</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>13.38743451769981</v>
+        <v>13.09895722248413</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.659493789485624</v>
+        <v>7.519183191138604</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.969085909082737</v>
+        <v>6.504990257280974</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1355673350087857</v>
+        <v>0.1339979716541158</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4775583521014991</v>
+        <v>0.4827176174028026</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2023964430578392</v>
+        <v>0.2378866009252904</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1837147739853052</v>
+        <v>0.172114996288492</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.21138401999395</v>
+        <v>15.9878109586201</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>26.71767989727239</v>
+        <v>27.61716938326851</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>20.48995783506939</v>
+        <v>21.30066610451424</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>21.90459865582417</v>
+        <v>21.63803458887462</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9220339046856291</v>
+        <v>0.9098392858796919</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.307703584072295</v>
+        <v>1.389348369182367</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8089131665606731</v>
+        <v>0.8207864213653867</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7832894752580405</v>
+        <v>0.7750635880289045</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.7568173255837447</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.6674168362317798</v>
+        <v>0.6674168362317802</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>9.832611130211392</v>
+        <v>9.272908965447058</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>22.21780596429921</v>
+        <v>20.65979565991067</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.461759753943578</v>
+        <v>8.384192232622711</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13.61777159198922</v>
+        <v>13.15069387444131</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5532806547508581</v>
+        <v>0.5278479193983375</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6634137120831343</v>
+        <v>0.6330586881804973</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3026010257752088</v>
+        <v>0.3076016746031231</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3716526385061244</v>
+        <v>0.3633421318352077</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>26.0620741602245</v>
+        <v>25.91709959474668</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>40.835274683902</v>
+        <v>39.82219270578125</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26.19049069007875</v>
+        <v>25.18930752005771</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>27.84743578823116</v>
+        <v>28.16507618639058</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.650339243182981</v>
+        <v>2.748791628089349</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.798010089328198</v>
+        <v>1.737356631196843</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.34771666442346</v>
+        <v>1.353400488644875</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.031633923471934</v>
+        <v>1.060742610274323</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>10.67994269698627</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6.683319294206353</v>
+        <v>6.683319294206336</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9400847134509485</v>
@@ -1149,7 +1149,7 @@
         <v>0.4461057126224094</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1569899850268726</v>
+        <v>0.1569899850268723</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>10.30939624656465</v>
+        <v>9.649222863318508</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>4.869450188938589</v>
+        <v>4.030690012412754</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.481368905928182</v>
+        <v>3.514884365765375</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.7342762231227001</v>
+        <v>-0.1416389570227333</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4785456618333947</v>
+        <v>0.4317588415808088</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1260510563917328</v>
+        <v>0.1078065281706657</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08297352712208121</v>
+        <v>0.1281240201779781</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.0116839745604416</v>
+        <v>-0.005612835056599537</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>24.47341851699034</v>
+        <v>24.8275719968797</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>20.37406569608861</v>
+        <v>21.09802159743294</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18.05583119577627</v>
+        <v>19.14947230348783</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13.23192699691135</v>
+        <v>13.44021009507729</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.640983701632462</v>
+        <v>1.679631407124869</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7236056596669829</v>
+        <v>0.7512188994511214</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8921680642182155</v>
+        <v>0.9433982605330676</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3444387224916172</v>
+        <v>0.3432047398623737</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>10.92636693834074</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>21.80766297282408</v>
+        <v>21.80766297282409</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5404913419749359</v>
@@ -1249,7 +1249,7 @@
         <v>0.5053652427498362</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.5420355510393163</v>
+        <v>0.5420355510393166</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.889485200041277</v>
+        <v>5.591420665759888</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.193684458131173</v>
+        <v>7.302976715344061</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.289597653326013</v>
+        <v>5.428865235200947</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16.8216623939056</v>
+        <v>16.69313779921923</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2640312677436032</v>
+        <v>0.2638251781882942</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2690471457504577</v>
+        <v>0.25006285790659</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.253594654122989</v>
+        <v>0.2298185215171878</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.3772597469010358</v>
+        <v>0.3811648704331709</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.26554115601706</v>
+        <v>14.90270501522573</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.11402489155468</v>
+        <v>17.8090144585184</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.39609501423268</v>
+        <v>15.58150711217683</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27.31075269865882</v>
+        <v>26.88875902061993</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.899520924449691</v>
+        <v>0.8828764502851534</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7588816001621895</v>
+        <v>0.7437085838699576</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8355643495190812</v>
+        <v>0.7943688346532051</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.7431624567699735</v>
+        <v>0.7315222336655226</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>8.939315731195002</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10.74246747476269</v>
+        <v>10.74246747476268</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4815438549952716</v>
@@ -1349,7 +1349,7 @@
         <v>0.3366508608353524</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.4093942696152788</v>
+        <v>0.4093942696152785</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>7.031778992353662</v>
+        <v>7.529001419830434</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>5.553042169801432</v>
+        <v>5.944975756822892</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4.205072711960009</v>
+        <v>4.117678747822985</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6.571930328808029</v>
+        <v>6.7577303609721</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2582551410601355</v>
+        <v>0.27297671698192</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2580393486204045</v>
+        <v>0.264809730458002</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.150554850401455</v>
+        <v>0.140040284843154</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2235670847745261</v>
+        <v>0.2339274282643172</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>16.84620763645496</v>
+        <v>16.64808716578125</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>14.70208499069038</v>
+        <v>14.58310418702791</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>13.88556605218448</v>
+        <v>13.80471013230639</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>15.10483854916611</v>
+        <v>15.32807487902314</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7284469100894014</v>
+        <v>0.7282405158850291</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8604576937016036</v>
+        <v>0.8396468919396861</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5712337160064106</v>
+        <v>0.5592641353391683</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.631441226886213</v>
+        <v>0.6391157123702943</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>12.25404931600061</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>13.84507328291944</v>
+        <v>13.84507328291943</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6944307060345484</v>
@@ -1449,7 +1449,7 @@
         <v>0.5137612355914719</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.4287387594793571</v>
+        <v>0.428738759479357</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>11.61448257315639</v>
+        <v>11.54035036629175</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>11.94748617635813</v>
+        <v>12.0070660174868</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9.891735771404624</v>
+        <v>9.938620953766078</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11.65618045609701</v>
+        <v>11.72196331910054</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.558456971142125</v>
+        <v>0.5511661661304204</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.468408631342777</v>
+        <v>0.4669861267593349</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3961111639622841</v>
+        <v>0.3957404182144609</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.3486687978580059</v>
+        <v>0.3490866996803231</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>15.69414905361409</v>
+        <v>15.90142994263494</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>16.62520699170365</v>
+        <v>16.48751344847118</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.52128500711948</v>
+        <v>14.37831685882074</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16.03953280433106</v>
+        <v>15.8591686859326</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.8491599732600669</v>
+        <v>0.856267715632872</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7109067120664876</v>
+        <v>0.7135286238355802</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.634697123621167</v>
+        <v>0.6325275125920438</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.5159469507089938</v>
+        <v>0.510518457161782</v>
       </c>
     </row>
     <row r="31">
